--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori2/67/word_level_predictions_67.xlsx
@@ -4321,7 +4321,7 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G75" s="2" t="b">
@@ -4333,11 +4333,11 @@
         </is>
       </c>
       <c r="I75" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K75" s="2" t="b">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4385,11 +4385,11 @@
         </is>
       </c>
       <c r="I76" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K76" s="2" t="b">
@@ -4437,11 +4437,11 @@
         </is>
       </c>
       <c r="I77" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K77" s="2" t="b">
@@ -4489,11 +4489,11 @@
         </is>
       </c>
       <c r="I78" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K78" s="2" t="b">
@@ -6534,364 +6534,364 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
+      <c r="A118" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C118" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D118" t="n">
+      <c r="D118" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="E118" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G118" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I118" t="b">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K118" t="b">
-        <v>1</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
+      <c r="A119" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C119" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D119" t="n">
+      <c r="D119" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G119" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I119" t="b">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K119" t="b">
-        <v>1</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G119" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
+      <c r="A120" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C120" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D120" t="n">
+      <c r="D120" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K120" t="b">
-        <v>1</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C121" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D121" t="n">
+      <c r="D121" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
+      <c r="A122" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C122" s="2" t="inlineStr">
         <is>
           <t>arrange</t>
         </is>
       </c>
-      <c r="D122" t="n">
+      <c r="D122" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K122" t="b">
-        <v>1</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D123" t="n">
+      <c r="D123" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" s="2" t="inlineStr">
         <is>
           <t>repairs</t>
         </is>
       </c>
-      <c r="D124" t="n">
+      <c r="D124" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="E124" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="F124" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14357,7 +14357,7 @@
       </c>
       <c r="F268" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G268" s="2" t="b">
@@ -14381,7 +14381,7 @@
       </c>
       <c r="L268" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="F269" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G269" s="2" t="b">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="L269" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="F270" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G270" s="2" t="b">
@@ -14485,7 +14485,7 @@
       </c>
       <c r="L270" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14513,7 +14513,7 @@
       </c>
       <c r="F271" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G271" s="2" t="b">
@@ -14537,7 +14537,7 @@
       </c>
       <c r="L271" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="F273" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G273" s="2" t="b">
@@ -14641,7 +14641,7 @@
       </c>
       <c r="L273" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -23977,7 +23977,7 @@
       </c>
       <c r="F453" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G453" s="2" t="b">
@@ -23989,11 +23989,11 @@
         </is>
       </c>
       <c r="I453" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J453" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K453" s="2" t="b">
@@ -24001,7 +24001,7 @@
       </c>
       <c r="L453" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24029,7 +24029,7 @@
       </c>
       <c r="F454" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G454" s="2" t="b">
@@ -24041,11 +24041,11 @@
         </is>
       </c>
       <c r="I454" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J454" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K454" s="2" t="b">
@@ -24053,7 +24053,7 @@
       </c>
       <c r="L454" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24081,7 +24081,7 @@
       </c>
       <c r="F455" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G455" s="2" t="b">
@@ -24093,11 +24093,11 @@
         </is>
       </c>
       <c r="I455" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J455" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K455" s="2" t="b">
@@ -24105,7 +24105,7 @@
       </c>
       <c r="L455" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24133,7 +24133,7 @@
       </c>
       <c r="F456" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G456" s="2" t="b">
@@ -24145,11 +24145,11 @@
         </is>
       </c>
       <c r="I456" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J456" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K456" s="2" t="b">
@@ -24157,7 +24157,7 @@
       </c>
       <c r="L456" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24197,11 +24197,11 @@
         </is>
       </c>
       <c r="I457" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J457" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K457" s="2" t="b">
@@ -24249,11 +24249,11 @@
         </is>
       </c>
       <c r="I458" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J458" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K458" s="2" t="b">
@@ -24301,11 +24301,11 @@
         </is>
       </c>
       <c r="I459" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J459" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K459" s="2" t="b">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori2/67/word_level_predictions_67.xlsx
@@ -4321,7 +4321,7 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G75" s="2" t="b">
@@ -4333,11 +4333,11 @@
         </is>
       </c>
       <c r="I75" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K75" s="2" t="b">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4385,11 +4385,11 @@
         </is>
       </c>
       <c r="I76" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K76" s="2" t="b">
@@ -4437,11 +4437,11 @@
         </is>
       </c>
       <c r="I77" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K77" s="2" t="b">
@@ -4489,11 +4489,11 @@
         </is>
       </c>
       <c r="I78" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K78" s="2" t="b">
@@ -6534,364 +6534,364 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" t="n">
         <v>9</v>
       </c>
-      <c r="B118" s="2" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C118" s="2" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D118" s="2" t="n">
+      <c r="D118" t="n">
         <v>7</v>
       </c>
-      <c r="E118" s="2" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F118" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G118" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L118" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" t="n">
         <v>9</v>
       </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C119" s="2" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D119" s="2" t="n">
+      <c r="D119" t="n">
         <v>8</v>
       </c>
-      <c r="E119" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F119" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G119" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L119" s="2" t="inlineStr">
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" t="n">
         <v>9</v>
       </c>
-      <c r="B120" s="2" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C120" s="2" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D120" s="2" t="n">
+      <c r="D120" t="n">
         <v>9</v>
       </c>
-      <c r="E120" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F120" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L120" s="2" t="inlineStr">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" t="n">
         <v>9</v>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C121" s="2" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D121" s="2" t="n">
+      <c r="D121" t="n">
         <v>10</v>
       </c>
-      <c r="E121" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" t="n">
         <v>9</v>
       </c>
-      <c r="B122" s="2" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C122" s="2" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>arrange</t>
         </is>
       </c>
-      <c r="D122" s="2" t="n">
+      <c r="D122" t="n">
         <v>11</v>
       </c>
-      <c r="E122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L122" s="2" t="inlineStr">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" t="n">
         <v>9</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
+      <c r="D123" t="n">
         <v>12</v>
       </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" t="n">
         <v>9</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>repairs</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
+      <c r="D124" t="n">
         <v>13</v>
       </c>
-      <c r="E124" s="2" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F124" s="2" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -14357,7 +14357,7 @@
       </c>
       <c r="F268" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G268" s="2" t="b">
@@ -14381,7 +14381,7 @@
       </c>
       <c r="L268" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="F269" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G269" s="2" t="b">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="L269" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="F270" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G270" s="2" t="b">
@@ -14485,7 +14485,7 @@
       </c>
       <c r="L270" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14513,7 +14513,7 @@
       </c>
       <c r="F271" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G271" s="2" t="b">
@@ -14537,7 +14537,7 @@
       </c>
       <c r="L271" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="F273" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G273" s="2" t="b">
@@ -14641,7 +14641,7 @@
       </c>
       <c r="L273" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23977,7 +23977,7 @@
       </c>
       <c r="F453" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G453" s="2" t="b">
@@ -23989,11 +23989,11 @@
         </is>
       </c>
       <c r="I453" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J453" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K453" s="2" t="b">
@@ -24001,7 +24001,7 @@
       </c>
       <c r="L453" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24029,7 +24029,7 @@
       </c>
       <c r="F454" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G454" s="2" t="b">
@@ -24041,11 +24041,11 @@
         </is>
       </c>
       <c r="I454" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J454" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K454" s="2" t="b">
@@ -24053,7 +24053,7 @@
       </c>
       <c r="L454" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24081,7 +24081,7 @@
       </c>
       <c r="F455" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G455" s="2" t="b">
@@ -24093,11 +24093,11 @@
         </is>
       </c>
       <c r="I455" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J455" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K455" s="2" t="b">
@@ -24105,7 +24105,7 @@
       </c>
       <c r="L455" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24133,7 +24133,7 @@
       </c>
       <c r="F456" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G456" s="2" t="b">
@@ -24145,11 +24145,11 @@
         </is>
       </c>
       <c r="I456" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J456" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K456" s="2" t="b">
@@ -24157,7 +24157,7 @@
       </c>
       <c r="L456" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24197,11 +24197,11 @@
         </is>
       </c>
       <c r="I457" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J457" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K457" s="2" t="b">
@@ -24249,11 +24249,11 @@
         </is>
       </c>
       <c r="I458" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J458" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K458" s="2" t="b">
@@ -24301,11 +24301,11 @@
         </is>
       </c>
       <c r="I459" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J459" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K459" s="2" t="b">
